--- a/Template/TestSuite/TestSuite.xlsx
+++ b/Template/TestSuite/TestSuite.xlsx
@@ -22,18 +22,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Explorer Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FireFox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Application URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://localhost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,15 +62,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TS Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TS_Login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NeedOrNot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explorer_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application_URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -479,22 +479,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.5">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75">
@@ -502,19 +502,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75">
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -547,7 +547,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>

--- a/Template/TestSuite/TestSuite.xlsx
+++ b/Template/TestSuite/TestSuite.xlsx
@@ -70,15 +70,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TS_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explorer_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Application_URL</t>
+    <t>TSName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExplorerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationURL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Template/TestSuite/TestSuite.xlsx
+++ b/Template/TestSuite/TestSuite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,51 +42,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Record Modify Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Login and Registe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS_Add new record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS_Delete a record</t>
+    <t>NeedOrNot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExplorerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationURL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TS_Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedOrNot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExplorerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplicationURL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,7 +137,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -167,18 +151,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -252,6 +244,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -286,6 +279,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,14 +455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
@@ -477,32 +471,32 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42.75">
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -517,53 +511,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.75">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="42.75">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -575,12 +553,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -588,12 +566,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/TestSuite/TestSuite.xlsx
+++ b/Template/TestSuite/TestSuite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,51 +34,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedOrNot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExplorerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>This case is used for testing login function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Record Modify Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login and Registe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS_Add new record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS_Delete a record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS_Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedOrNot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExplorerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplicationURL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,11 +446,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -479,22 +461,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.5">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75">
@@ -502,13 +484,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -516,54 +498,6 @@
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="42.75">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="42.75">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Template/TestSuite/TestSuite.xlsx
+++ b/Template/TestSuite/TestSuite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -22,10 +22,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FireFox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://localhost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,14 +59,18 @@
   </si>
   <si>
     <t>This case is used for testing login function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firefox</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,16 +153,21 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -236,6 +241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,6 +276,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,12 +452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
@@ -459,44 +466,44 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="42.75">
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -509,12 +516,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -522,12 +529,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/TestSuite/TestSuite.xlsx
+++ b/Template/TestSuite/TestSuite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,14 +63,26 @@
   </si>
   <si>
     <t>Firefox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS_Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register a new account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,19 +154,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,7 +179,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -241,7 +253,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -276,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,21 +462,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -486,23 +498,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="42.75">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -510,18 +542,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -529,12 +562,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
